--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-healthcareservice-implementation-period.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-healthcareservice-implementation-period.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="127">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-02T17:20:16+02:00</t>
+    <t>2023-07-18T12:08:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -335,30 +335,11 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>Extension.value[x]:valuePeriod</t>
-  </si>
-  <si>
-    <t>valuePeriod</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valuePeriod.id</t>
-  </si>
-  <si>
     <t>Extension.value[x].id</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valuePeriod.extension</t>
   </si>
   <si>
     <t>Extension.value[x].extension</t>
@@ -377,9 +358,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Extension.value[x]:valuePeriod.start</t>
-  </si>
-  <si>
     <t>Extension.value[x].start</t>
   </si>
   <si>
@@ -402,14 +380,11 @@
     <t>Period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">per-1
-</t>
+    <t>ele-1
+per-1</t>
   </si>
   <si>
     <t>./low</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valuePeriod.end</t>
   </si>
   <si>
     <t>Extension.value[x].end</t>
@@ -735,7 +710,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -744,42 +719,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.40625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.58203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.60546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1195,7 +1170,7 @@
         <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>93</v>
@@ -1382,14 +1357,16 @@
         <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AC6" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>100</v>
@@ -1401,10 +1378,10 @@
         <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>99</v>
@@ -1412,14 +1389,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
         <v>74</v>
       </c>
@@ -1440,13 +1415,13 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1497,7 +1472,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -1509,29 +1484,29 @@
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>74</v>
@@ -1543,15 +1518,17 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>74</v>
@@ -1588,34 +1565,34 @@
         <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="AD8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -1623,18 +1600,18 @@
         <v>111</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>74</v>
@@ -1643,10 +1620,10 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>114</v>
@@ -1693,42 +1670,42 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>85</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1748,10 +1725,10 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>121</v>
@@ -1766,7 +1743,9 @@
       <c r="P10" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q10" s="2"/>
+      <c r="Q10" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="R10" t="s" s="2">
         <v>74</v>
       </c>
@@ -1810,7 +1789,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -1819,120 +1798,13 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>126</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q11" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
